--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW16.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW16.xlsx
@@ -3105,37 +3105,37 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="n">
-        <v>3.4459981907160104</v>
+        <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>2.9919369561082876</v>
+        <v>0.0</v>
       </c>
       <c r="D80" t="n">
-        <v>3.655020202420925</v>
+        <v>0.0</v>
       </c>
       <c r="E80" t="n">
-        <v>3.378269568361776</v>
+        <v>0.0</v>
       </c>
       <c r="F80" t="n">
-        <v>2.883962304074429</v>
+        <v>0.0</v>
       </c>
       <c r="G80" t="n">
-        <v>2.8579215521072436</v>
+        <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>3.4459981907160104</v>
+        <v>0.0</v>
       </c>
       <c r="I80" t="n">
-        <v>2.9919369561082876</v>
+        <v>0.0</v>
       </c>
       <c r="J80" t="n">
-        <v>3.655020202420925</v>
+        <v>0.0</v>
       </c>
       <c r="K80" t="n">
-        <v>3.378269568361776</v>
+        <v>0.0</v>
       </c>
       <c r="L80" t="n">
-        <v>2.883962304074429</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>1.7546392855442505</v>
+        <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>1.7555859716296525</v>
+        <v>0.0</v>
       </c>
       <c r="D90" t="n">
-        <v>1.7040516653834368</v>
+        <v>0.0</v>
       </c>
       <c r="E90" t="n">
-        <v>1.7349481657463066</v>
+        <v>0.0</v>
       </c>
       <c r="F90" t="n">
-        <v>1.8350756347918407</v>
+        <v>0.0</v>
       </c>
       <c r="G90" t="n">
-        <v>1.7323279187919987</v>
+        <v>0.0</v>
       </c>
       <c r="H90" t="n">
-        <v>1.7546392855442505</v>
+        <v>0.0</v>
       </c>
       <c r="I90" t="n">
-        <v>1.7555859716296525</v>
+        <v>0.0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7040516653834368</v>
+        <v>0.0</v>
       </c>
       <c r="K90" t="n">
-        <v>1.7349481657463066</v>
+        <v>0.0</v>
       </c>
       <c r="L90" t="n">
-        <v>1.8350756347918407</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8975904012892013</v>
+        <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8668610348682444</v>
+        <v>0.0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8944255467204169</v>
+        <v>0.0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8101333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.914003459941463</v>
+        <v>0.0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9084901027021322</v>
+        <v>0.0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8975904012892013</v>
+        <v>0.0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.8668610348682444</v>
+        <v>0.0</v>
       </c>
       <c r="J100" t="n">
-        <v>0.8944255467204169</v>
+        <v>0.0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8101333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="L100" t="n">
-        <v>0.914003459941463</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>5.35214259136604</v>
+        <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>5.44867226066146</v>
+        <v>0.0</v>
       </c>
       <c r="D127" t="n">
-        <v>5.505254968924445</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>5.488564919998106</v>
+        <v>0.0</v>
       </c>
       <c r="F127" t="n">
-        <v>5.300976963885836</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="n">
-        <v>4.644658826581387</v>
+        <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>5.35214259136604</v>
+        <v>0.0</v>
       </c>
       <c r="I127" t="n">
-        <v>5.44867226066146</v>
+        <v>0.0</v>
       </c>
       <c r="J127" t="n">
-        <v>5.505254968924445</v>
+        <v>0.0</v>
       </c>
       <c r="K127" t="n">
-        <v>5.488564919998106</v>
+        <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>5.300976963885836</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>0.20735233867962763</v>
+        <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.25818427540369326</v>
+        <v>0.0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.23292402872362616</v>
+        <v>0.0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24573333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.24908137339527997</v>
+        <v>0.0</v>
       </c>
       <c r="G128" t="n">
-        <v>0.24101082689090506</v>
+        <v>0.0</v>
       </c>
       <c r="H128" t="n">
-        <v>0.20735233867962763</v>
+        <v>0.0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.25818427540369326</v>
+        <v>0.0</v>
       </c>
       <c r="J128" t="n">
-        <v>0.23292402872362616</v>
+        <v>0.0</v>
       </c>
       <c r="K128" t="n">
-        <v>0.24573333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="L128" t="n">
-        <v>0.24908137339527997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
@@ -6297,37 +6297,37 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="n">
-        <v>3.348694248418504</v>
+        <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>3.4271647115466717</v>
+        <v>0.0</v>
       </c>
       <c r="D164" t="n">
-        <v>3.420244166527143</v>
+        <v>0.0</v>
       </c>
       <c r="E164" t="n">
-        <v>2.9005178446483937</v>
+        <v>0.0</v>
       </c>
       <c r="F164" t="n">
-        <v>3.435858512265787</v>
+        <v>0.0</v>
       </c>
       <c r="G164" t="n">
-        <v>3.3383095280259907</v>
+        <v>0.0</v>
       </c>
       <c r="H164" t="n">
-        <v>3.348694248418504</v>
+        <v>0.0</v>
       </c>
       <c r="I164" t="n">
-        <v>3.4271647115466717</v>
+        <v>0.0</v>
       </c>
       <c r="J164" t="n">
-        <v>3.420244166527143</v>
+        <v>0.0</v>
       </c>
       <c r="K164" t="n">
-        <v>2.9005178446483937</v>
+        <v>0.0</v>
       </c>
       <c r="L164" t="n">
-        <v>3.435858512265787</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
@@ -6373,37 +6373,37 @@
         <v>165.0</v>
       </c>
       <c r="B166" t="n">
-        <v>3.749333974629693</v>
+        <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>3.8371926895751716</v>
+        <v>0.0</v>
       </c>
       <c r="D166" t="n">
-        <v>3.8294441665271424</v>
+        <v>0.0</v>
       </c>
       <c r="E166" t="n">
-        <v>3.2475374854231256</v>
+        <v>0.0</v>
       </c>
       <c r="F166" t="n">
-        <v>3.846926621665339</v>
+        <v>0.0</v>
       </c>
       <c r="G166" t="n">
-        <v>3.7377068202536052</v>
+        <v>0.0</v>
       </c>
       <c r="H166" t="n">
-        <v>3.749333974629693</v>
+        <v>0.0</v>
       </c>
       <c r="I166" t="n">
-        <v>3.8371926895751716</v>
+        <v>0.0</v>
       </c>
       <c r="J166" t="n">
-        <v>3.8294441665271424</v>
+        <v>0.0</v>
       </c>
       <c r="K166" t="n">
-        <v>3.2475374854231256</v>
+        <v>0.0</v>
       </c>
       <c r="L166" t="n">
-        <v>3.846926621665339</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>1.614847390996993</v>
+        <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>1.7652270737672209</v>
+        <v>0.0</v>
       </c>
       <c r="D200" t="n">
-        <v>1.519938117257214</v>
+        <v>0.0</v>
       </c>
       <c r="E200" t="n">
-        <v>1.7731286790611134</v>
+        <v>0.0</v>
       </c>
       <c r="F200" t="n">
-        <v>1.5787835107700179</v>
+        <v>0.0</v>
       </c>
       <c r="G200" t="n">
-        <v>1.8427304667857245</v>
+        <v>0.0</v>
       </c>
       <c r="H200" t="n">
-        <v>1.614847390996993</v>
+        <v>0.0</v>
       </c>
       <c r="I200" t="n">
-        <v>1.7652270737672209</v>
+        <v>0.0</v>
       </c>
       <c r="J200" t="n">
-        <v>1.519938117257214</v>
+        <v>0.0</v>
       </c>
       <c r="K200" t="n">
-        <v>1.7731286790611134</v>
+        <v>0.0</v>
       </c>
       <c r="L200" t="n">
-        <v>1.5787835107700179</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
@@ -8083,37 +8083,37 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="n">
-        <v>0.20487651093180767</v>
+        <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.2406666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D211" t="n">
-        <v>0.2068844326505679</v>
+        <v>0.0</v>
       </c>
       <c r="E211" t="n">
-        <v>0.24515392589865376</v>
+        <v>0.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.24169265109683769</v>
+        <v>0.0</v>
       </c>
       <c r="G211" t="n">
-        <v>0.23050549442051974</v>
+        <v>0.0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.20487651093180767</v>
+        <v>0.0</v>
       </c>
       <c r="I211" t="n">
-        <v>0.2406666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2068844326505679</v>
+        <v>0.0</v>
       </c>
       <c r="K211" t="n">
-        <v>0.24515392589865376</v>
+        <v>0.0</v>
       </c>
       <c r="L211" t="n">
-        <v>0.24169265109683769</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
@@ -9033,37 +9033,37 @@
         <v>235.0</v>
       </c>
       <c r="B236" t="n">
-        <v>0.42232849476539475</v>
+        <v>0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>0.41218362801715624</v>
+        <v>0.0</v>
       </c>
       <c r="D236" t="n">
-        <v>0.4017086485909141</v>
+        <v>0.0</v>
       </c>
       <c r="E236" t="n">
-        <v>0.4139441759753412</v>
+        <v>0.0</v>
       </c>
       <c r="F236" t="n">
-        <v>0.3760059266478119</v>
+        <v>0.0</v>
       </c>
       <c r="G236" t="n">
-        <v>0.4327673696286146</v>
+        <v>0.0</v>
       </c>
       <c r="H236" t="n">
-        <v>0.42232849476539475</v>
+        <v>0.0</v>
       </c>
       <c r="I236" t="n">
-        <v>0.41218362801715624</v>
+        <v>0.0</v>
       </c>
       <c r="J236" t="n">
-        <v>0.4017086485909141</v>
+        <v>0.0</v>
       </c>
       <c r="K236" t="n">
-        <v>0.4139441759753412</v>
+        <v>0.0</v>
       </c>
       <c r="L236" t="n">
-        <v>0.3760059266478119</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="237">
@@ -9185,37 +9185,37 @@
         <v>239.0</v>
       </c>
       <c r="B240" t="n">
-        <v>0.24497378240263246</v>
+        <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>0.2113686321154023</v>
+        <v>0.0</v>
       </c>
       <c r="D240" t="n">
-        <v>0.2170398653497682</v>
+        <v>0.0</v>
       </c>
       <c r="E240" t="n">
-        <v>0.24573333333333328</v>
+        <v>0.0</v>
       </c>
       <c r="F240" t="n">
-        <v>0.23800387232389528</v>
+        <v>0.0</v>
       </c>
       <c r="G240" t="n">
-        <v>0.23745622763217536</v>
+        <v>0.0</v>
       </c>
       <c r="H240" t="n">
-        <v>0.24497378240263246</v>
+        <v>0.0</v>
       </c>
       <c r="I240" t="n">
-        <v>0.2113686321154023</v>
+        <v>0.0</v>
       </c>
       <c r="J240" t="n">
-        <v>0.2170398653497682</v>
+        <v>0.0</v>
       </c>
       <c r="K240" t="n">
-        <v>0.24573333333333328</v>
+        <v>0.0</v>
       </c>
       <c r="L240" t="n">
-        <v>0.23800387232389528</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="241">
@@ -11959,37 +11959,37 @@
         <v>312.0</v>
       </c>
       <c r="B313" t="n">
-        <v>6.215503465755004</v>
+        <v>0.0</v>
       </c>
       <c r="C313" t="n">
-        <v>6.00271321842662</v>
+        <v>0.0</v>
       </c>
       <c r="D313" t="n">
-        <v>6.193587941131929</v>
+        <v>0.0</v>
       </c>
       <c r="E313" t="n">
-        <v>5.609893481285791</v>
+        <v>0.0</v>
       </c>
       <c r="F313" t="n">
-        <v>6.329158227203265</v>
+        <v>0.0</v>
       </c>
       <c r="G313" t="n">
-        <v>6.290980132852226</v>
+        <v>0.0</v>
       </c>
       <c r="H313" t="n">
-        <v>6.215503465755004</v>
+        <v>0.0</v>
       </c>
       <c r="I313" t="n">
-        <v>6.00271321842662</v>
+        <v>0.0</v>
       </c>
       <c r="J313" t="n">
-        <v>6.193587941131929</v>
+        <v>0.0</v>
       </c>
       <c r="K313" t="n">
-        <v>5.609893481285791</v>
+        <v>0.0</v>
       </c>
       <c r="L313" t="n">
-        <v>6.329158227203265</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="314">
@@ -14429,37 +14429,37 @@
         <v>377.0</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.48019838881695576</v>
+        <v>-0.0</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.471011066094908</v>
+        <v>-0.0</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.42492601684476744</v>
+        <v>-0.0</v>
       </c>
       <c r="E378" t="n">
-        <v>-0.4009333333333334</v>
+        <v>-0.0</v>
       </c>
       <c r="F378" t="n">
-        <v>-0.47133021942854836</v>
+        <v>-0.0</v>
       </c>
       <c r="G378" t="n">
-        <v>-0.47135129511864</v>
+        <v>-0.0</v>
       </c>
       <c r="H378" t="n">
-        <v>-0.48019838881695576</v>
+        <v>-0.0</v>
       </c>
       <c r="I378" t="n">
-        <v>-0.471011066094908</v>
+        <v>-0.0</v>
       </c>
       <c r="J378" t="n">
-        <v>-0.42492601684476744</v>
+        <v>-0.0</v>
       </c>
       <c r="K378" t="n">
-        <v>-0.4009333333333334</v>
+        <v>-0.0</v>
       </c>
       <c r="L378" t="n">
-        <v>-0.47133021942854836</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="379">
@@ -15113,37 +15113,37 @@
         <v>395.0</v>
       </c>
       <c r="B396" t="n">
-        <v>0.38367593007191997</v>
+        <v>0.0</v>
       </c>
       <c r="C396" t="n">
-        <v>0.39266666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D396" t="n">
-        <v>0.39187374669547903</v>
+        <v>0.0</v>
       </c>
       <c r="E396" t="n">
-        <v>0.3323262140941191</v>
+        <v>0.0</v>
       </c>
       <c r="F396" t="n">
-        <v>0.3936627570318416</v>
+        <v>0.0</v>
       </c>
       <c r="G396" t="n">
-        <v>0.3824861029454165</v>
+        <v>0.0</v>
       </c>
       <c r="H396" t="n">
-        <v>0.38367593007191997</v>
+        <v>0.0</v>
       </c>
       <c r="I396" t="n">
-        <v>0.39266666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="J396" t="n">
-        <v>0.39187374669547903</v>
+        <v>0.0</v>
       </c>
       <c r="K396" t="n">
-        <v>0.3323262140941191</v>
+        <v>0.0</v>
       </c>
       <c r="L396" t="n">
-        <v>0.3936627570318416</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="397">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.3301781844860747</v>
+        <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>0.34628821503782636</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="n">
-        <v>0.3835285011253808</v>
+        <v>0.0</v>
       </c>
       <c r="E420" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F420" t="n">
-        <v>0.3911086579285869</v>
+        <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>0.33362340229804227</v>
+        <v>0.0</v>
       </c>
       <c r="H420" t="n">
-        <v>0.3301781844860747</v>
+        <v>0.0</v>
       </c>
       <c r="I420" t="n">
-        <v>0.34628821503782636</v>
+        <v>0.0</v>
       </c>
       <c r="J420" t="n">
-        <v>0.3835285011253808</v>
+        <v>0.0</v>
       </c>
       <c r="K420" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="L420" t="n">
-        <v>0.3911086579285869</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>4.888221815645109</v>
+        <v>0.0</v>
       </c>
       <c r="C428" t="n">
-        <v>5.126727587661379</v>
+        <v>0.0</v>
       </c>
       <c r="D428" t="n">
-        <v>5.678062555952495</v>
+        <v>0.0</v>
       </c>
       <c r="E428" t="n">
-        <v>5.813351264452175</v>
+        <v>0.0</v>
       </c>
       <c r="F428" t="n">
-        <v>5.790285257488992</v>
+        <v>0.0</v>
       </c>
       <c r="G428" t="n">
-        <v>4.939227574533517</v>
+        <v>0.0</v>
       </c>
       <c r="H428" t="n">
-        <v>4.888221815645109</v>
+        <v>0.0</v>
       </c>
       <c r="I428" t="n">
-        <v>5.126727587661379</v>
+        <v>0.0</v>
       </c>
       <c r="J428" t="n">
-        <v>5.678062555952495</v>
+        <v>0.0</v>
       </c>
       <c r="K428" t="n">
-        <v>5.813351264452175</v>
+        <v>0.0</v>
       </c>
       <c r="L428" t="n">
-        <v>5.790285257488992</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="429">
@@ -17659,37 +17659,37 @@
         <v>462.0</v>
       </c>
       <c r="B463" t="n">
-        <v>0.4394573539052357</v>
+        <v>0.0</v>
       </c>
       <c r="C463" t="n">
-        <v>0.5162267554513822</v>
+        <v>0.0</v>
       </c>
       <c r="D463" t="n">
-        <v>0.44376431892217183</v>
+        <v>0.0</v>
       </c>
       <c r="E463" t="n">
-        <v>0.5258518660089916</v>
+        <v>0.0</v>
       </c>
       <c r="F463" t="n">
-        <v>0.518427478222286</v>
+        <v>0.0</v>
       </c>
       <c r="G463" t="n">
-        <v>0.49443117797128094</v>
+        <v>0.0</v>
       </c>
       <c r="H463" t="n">
-        <v>0.4394573539052357</v>
+        <v>0.0</v>
       </c>
       <c r="I463" t="n">
-        <v>0.5162267554513822</v>
+        <v>0.0</v>
       </c>
       <c r="J463" t="n">
-        <v>0.44376431892217183</v>
+        <v>0.0</v>
       </c>
       <c r="K463" t="n">
-        <v>0.5258518660089916</v>
+        <v>0.0</v>
       </c>
       <c r="L463" t="n">
-        <v>0.518427478222286</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="464">
@@ -19141,37 +19141,37 @@
         <v>501.0</v>
       </c>
       <c r="B502" t="n">
-        <v>2.2602138830900538</v>
+        <v>0.0</v>
       </c>
       <c r="C502" t="n">
-        <v>1.9501610011955826</v>
+        <v>0.0</v>
       </c>
       <c r="D502" t="n">
-        <v>2.0024857845452058</v>
+        <v>0.0</v>
       </c>
       <c r="E502" t="n">
-        <v>2.26722176589958</v>
+        <v>0.0</v>
       </c>
       <c r="F502" t="n">
-        <v>2.195907052500489</v>
+        <v>0.0</v>
       </c>
       <c r="G502" t="n">
-        <v>2.1908542908413184</v>
+        <v>0.0</v>
       </c>
       <c r="H502" t="n">
-        <v>2.2602138830900538</v>
+        <v>0.0</v>
       </c>
       <c r="I502" t="n">
-        <v>1.9501610011955826</v>
+        <v>0.0</v>
       </c>
       <c r="J502" t="n">
-        <v>2.0024857845452058</v>
+        <v>0.0</v>
       </c>
       <c r="K502" t="n">
-        <v>2.26722176589958</v>
+        <v>0.0</v>
       </c>
       <c r="L502" t="n">
-        <v>2.195907052500489</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="503">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>1.0501385110099482</v>
+        <v>0.0</v>
       </c>
       <c r="C510" t="n">
-        <v>1.0509362564748046</v>
+        <v>0.0</v>
       </c>
       <c r="D510" t="n">
-        <v>1.0462746597698807</v>
+        <v>0.0</v>
       </c>
       <c r="E510" t="n">
-        <v>0.8895496236210294</v>
+        <v>0.0</v>
       </c>
       <c r="F510" t="n">
-        <v>0.8955757543324332</v>
+        <v>0.0</v>
       </c>
       <c r="G510" t="n">
-        <v>1.118886635446366</v>
+        <v>0.0</v>
       </c>
       <c r="H510" t="n">
-        <v>1.0501385110099482</v>
+        <v>0.0</v>
       </c>
       <c r="I510" t="n">
-        <v>1.0509362564748046</v>
+        <v>0.0</v>
       </c>
       <c r="J510" t="n">
-        <v>1.0462746597698807</v>
+        <v>0.0</v>
       </c>
       <c r="K510" t="n">
-        <v>0.8895496236210294</v>
+        <v>0.0</v>
       </c>
       <c r="L510" t="n">
-        <v>0.8955757543324332</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="511">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>1.8507839714692051</v>
+        <v>0.0</v>
       </c>
       <c r="C521" t="n">
-        <v>1.8521899331630092</v>
+        <v>0.0</v>
       </c>
       <c r="D521" t="n">
-        <v>1.8439742469725948</v>
+        <v>0.0</v>
       </c>
       <c r="E521" t="n">
-        <v>1.567759079362693</v>
+        <v>0.0</v>
       </c>
       <c r="F521" t="n">
-        <v>1.5783796460914745</v>
+        <v>0.0</v>
       </c>
       <c r="G521" t="n">
-        <v>1.971946966104193</v>
+        <v>0.0</v>
       </c>
       <c r="H521" t="n">
-        <v>1.8507839714692051</v>
+        <v>0.0</v>
       </c>
       <c r="I521" t="n">
-        <v>1.8521899331630092</v>
+        <v>0.0</v>
       </c>
       <c r="J521" t="n">
-        <v>1.8439742469725948</v>
+        <v>0.0</v>
       </c>
       <c r="K521" t="n">
-        <v>1.567759079362693</v>
+        <v>0.0</v>
       </c>
       <c r="L521" t="n">
-        <v>1.5783796460914745</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="522">
@@ -20243,37 +20243,37 @@
         <v>530.0</v>
       </c>
       <c r="B531" t="n">
-        <v>4.065943280899693</v>
+        <v>0.0</v>
       </c>
       <c r="C531" t="n">
-        <v>3.9675389788152495</v>
+        <v>0.0</v>
       </c>
       <c r="D531" t="n">
-        <v>4.721620357018937</v>
+        <v>0.0</v>
       </c>
       <c r="E531" t="n">
-        <v>4.52446730406549</v>
+        <v>0.0</v>
       </c>
       <c r="F531" t="n">
-        <v>4.7414431141494084</v>
+        <v>0.0</v>
       </c>
       <c r="G531" t="n">
-        <v>4.101401472156688</v>
+        <v>0.0</v>
       </c>
       <c r="H531" t="n">
-        <v>4.065943280899693</v>
+        <v>0.0</v>
       </c>
       <c r="I531" t="n">
-        <v>3.9675389788152495</v>
+        <v>0.0</v>
       </c>
       <c r="J531" t="n">
-        <v>4.721620357018937</v>
+        <v>0.0</v>
       </c>
       <c r="K531" t="n">
-        <v>4.52446730406549</v>
+        <v>0.0</v>
       </c>
       <c r="L531" t="n">
-        <v>4.7414431141494084</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="532">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>0.791112105690446</v>
+        <v>0.0</v>
       </c>
       <c r="C596" t="n">
-        <v>0.8647829603809112</v>
+        <v>0.0</v>
       </c>
       <c r="D596" t="n">
-        <v>0.7446161483532815</v>
+        <v>0.0</v>
       </c>
       <c r="E596" t="n">
-        <v>0.8686539488329696</v>
+        <v>0.0</v>
       </c>
       <c r="F596" t="n">
-        <v>0.7734444471954127</v>
+        <v>0.0</v>
       </c>
       <c r="G596" t="n">
-        <v>0.9027517943344207</v>
+        <v>0.0</v>
       </c>
       <c r="H596" t="n">
-        <v>0.791112105690446</v>
+        <v>0.0</v>
       </c>
       <c r="I596" t="n">
-        <v>0.8647829603809112</v>
+        <v>0.0</v>
       </c>
       <c r="J596" t="n">
-        <v>0.7446161483532815</v>
+        <v>0.0</v>
       </c>
       <c r="K596" t="n">
-        <v>0.8686539488329696</v>
+        <v>0.0</v>
       </c>
       <c r="L596" t="n">
-        <v>0.7734444471954127</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="597">
